--- a/02 Excel/Tio Cash Master 1700 in the neighborhood of show try.xlsx
+++ b/02 Excel/Tio Cash Master 1700 in the neighborhood of show try.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cash_\Desktop\Tio Cash Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A724F583-C471-4E45-90A8-90DCE8A2BB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F48858F-78B4-4F35-AF7F-FFB3285BE65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" firstSheet="3" activeTab="6" xr2:uid="{1BD8DEDC-1356-4FA5-8C71-59F9C0DE45BA}"/>
+    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" firstSheet="4" activeTab="8" xr2:uid="{1BD8DEDC-1356-4FA5-8C71-59F9C0DE45BA}"/>
   </bookViews>
   <sheets>
     <sheet name="1700 try" sheetId="1" r:id="rId1"/>
@@ -61573,7 +61573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E30FFAB-41DC-4895-9FA8-28AF66523438}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -64275,8 +64275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CEDF17-7717-4622-9E2C-57049DC42467}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.05" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -64394,7 +64394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="114">
         <v>-6</v>
       </c>
@@ -64425,7 +64425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="114">
         <v>-5</v>
       </c>
@@ -64444,11 +64444,11 @@
         <f t="shared" si="1"/>
         <v>176367188</v>
       </c>
-      <c r="G7" s="138">
+      <c r="G7" s="140">
         <f t="shared" si="2"/>
         <v>176367189</v>
       </c>
-      <c r="H7" s="152">
+      <c r="H7" s="153">
         <f t="shared" si="3"/>
         <v>2.1773769625576173E+17</v>
       </c>
@@ -64475,11 +64475,11 @@
         <f t="shared" si="1"/>
         <v>176367188</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="140">
         <f t="shared" si="2"/>
         <v>176367189</v>
       </c>
-      <c r="H8" s="152">
+      <c r="H8" s="153">
         <f t="shared" si="3"/>
         <v>2.1773769643212893E+17</v>
       </c>
@@ -64641,7 +64641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="114">
         <v>2</v>
       </c>
@@ -64660,11 +64660,11 @@
         <f t="shared" si="1"/>
         <v>176367189</v>
       </c>
-      <c r="G14" s="140">
+      <c r="G14" s="120">
         <f t="shared" si="2"/>
         <v>176367190</v>
       </c>
-      <c r="H14" s="153">
+      <c r="H14" s="154">
         <f t="shared" si="3"/>
         <v>2.1773769872490237E+17</v>
       </c>
@@ -64672,7 +64672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="114">
         <v>3</v>
       </c>
@@ -64691,11 +64691,11 @@
         <f t="shared" si="1"/>
         <v>176367189</v>
       </c>
-      <c r="G15" s="140">
+      <c r="G15" s="120">
         <f t="shared" si="2"/>
         <v>176367190</v>
       </c>
-      <c r="H15" s="153">
+      <c r="H15" s="154">
         <f t="shared" si="3"/>
         <v>2.1773769890126957E+17</v>
       </c>
